--- a/app/assets/files/Test.xlsx
+++ b/app/assets/files/Test.xlsx
@@ -8,69 +8,42 @@
     <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="7" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Лист3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>zip code</t>
-  </si>
-  <si>
-    <t>1008 Villa Ave, Indianapolis, IN</t>
-  </si>
-  <si>
-    <t>46203</t>
-  </si>
-  <si>
-    <t>1009 St Paul St, Indianapolis, IN</t>
-  </si>
-  <si>
-    <t>101 S Sheridan Ave, Indianapolis, IN</t>
-  </si>
-  <si>
-    <t>46219</t>
-  </si>
-  <si>
-    <t>1010 Udell St, Indianapolis, IN</t>
-  </si>
-  <si>
-    <t>46208</t>
-  </si>
-  <si>
-    <t>1010 W Roache St, Indianapolis, IN</t>
-  </si>
-  <si>
-    <t>1011 W 28th St, Indianapolis, IN</t>
-  </si>
-  <si>
-    <t>10126 Catalina Dr, Indianapolis, IN</t>
-  </si>
-  <si>
-    <t>46235</t>
-  </si>
-  <si>
-    <t>1013 N Pershing Ave, Indianapolis, IN</t>
-  </si>
-  <si>
-    <t>46222</t>
-  </si>
-  <si>
-    <t>10131 Catalina Dr, Indianapolis, IN</t>
-  </si>
-  <si>
-    <t>1014 Miley Ave, Indianapolis, IN</t>
-  </si>
-  <si>
-    <t>1014 N Sheffield Ave, Indianapolis, IN</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Zip+4</t>
+  </si>
+  <si>
+    <t>323 N Euclid Ave, Indianapolis, IN</t>
+  </si>
+  <si>
+    <t>46201</t>
+  </si>
+  <si>
+    <t>3610 E Vermont St, Indianapolis, IN</t>
+  </si>
+  <si>
+    <t>524 N Dearborn St, Indianapolis, IN</t>
+  </si>
+  <si>
+    <t>904 N Sherman Dr, Indianapolis, IN</t>
+  </si>
+  <si>
+    <t>948 N Sherman Dr, Indianapolis, IN</t>
+  </si>
+  <si>
+    <t>N Lasalle St, Indianapolis, IN</t>
   </si>
 </sst>
 </file>
@@ -168,142 +141,81 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A7" activeCellId="0" pane="topLeft" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.4549019607843"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.7019607843137"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.71372549019608"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.3" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
+      <c r="D1" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.3" outlineLevel="0" r="2">
+      <c r="B2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.3" outlineLevel="0" r="3">
+      <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="G1" s="0" t="n">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.3" outlineLevel="0" r="4">
+      <c r="A4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.3" outlineLevel="0" r="5">
+      <c r="A5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.3" outlineLevel="0" r="6">
+      <c r="A6" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="n">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.3" outlineLevel="0" r="7">
+      <c r="A7" s="0" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.3" outlineLevel="0" r="8">
+      <c r="A8" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="s">
-        <v>11</v>
-      </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -328,6 +240,9 @@
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.71372549019608"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -350,6 +265,9 @@
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.71372549019608"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
